--- a/Sprawozdania/Zlozonosc.xlsx
+++ b/Sprawozdania/Zlozonosc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -291,11 +291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44864256"/>
-        <c:axId val="44862464"/>
+        <c:axId val="89499520"/>
+        <c:axId val="89506176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44864256"/>
+        <c:axId val="89499520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -325,12 +325,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44862464"/>
+        <c:crossAx val="89506176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44862464"/>
+        <c:axId val="89506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44864256"/>
+        <c:crossAx val="89499520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -420,7 +420,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>N^1.5</c:v>
+            <c:v>a*N^2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050"/>
@@ -478,37 +478,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.9599999999999983E-3</c:v>
+                  <c:v>7.9359999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9060743280239769E-2</c:v>
+                  <c:v>8.3823999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5388806439473649E-2</c:v>
+                  <c:v>1.519E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11091934183788685</c:v>
+                  <c:v>4.99999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36311045151578863</c:v>
+                  <c:v>0.24304000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84834417351170011</c:v>
+                  <c:v>0.75345189999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0657848465567525</c:v>
+                  <c:v>1.0213756000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5097656905626096</c:v>
+                  <c:v>1.6249456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6746102239391791</c:v>
+                  <c:v>3.4831599999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.729421487968176</c:v>
+                  <c:v>5.4260199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0596982646497271</c:v>
+                  <c:v>6.0759999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +519,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Measured</c:v>
+            <c:v>Czas zmierzony</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050"/>
@@ -622,36 +622,45 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54396416"/>
-        <c:axId val="54398336"/>
+        <c:axId val="90138112"/>
+        <c:axId val="90139648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54396416"/>
+        <c:axId val="90138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54398336"/>
+        <c:crossAx val="90139648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54398336"/>
+        <c:axId val="90139648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54396416"/>
+        <c:crossAx val="90138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -677,16 +686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1034,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,11 +1085,11 @@
         <v>1.3</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E9" si="0">D2/C2</f>
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="F2">
-        <f>A2*$G$3</f>
+        <f t="shared" ref="F2:F9" si="1">A2*$G$3</f>
         <v>3.6700000000000001E-3</v>
       </c>
       <c r="G2" t="s">
@@ -1101,11 +1110,11 @@
         <v>4.2575000000000003</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>2.1287500000000001E-2</v>
       </c>
       <c r="F3">
-        <f>A3*$G$3</f>
+        <f t="shared" si="1"/>
         <v>1.8350000000000002E-2</v>
       </c>
       <c r="G3">
@@ -1126,11 +1135,11 @@
         <v>9.7524990000000003</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>3.9806118367346939E-2</v>
       </c>
       <c r="F4">
-        <f>A4*$G$3</f>
+        <f t="shared" si="1"/>
         <v>3.6700000000000003E-2</v>
       </c>
     </row>
@@ -1148,11 +1157,11 @@
         <v>19.599997999999999</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>7.6264583657587551E-2</v>
       </c>
       <c r="F5">
-        <f>A5*$G$3</f>
+        <f t="shared" si="1"/>
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
@@ -1170,11 +1179,11 @@
         <v>16.297499999999999</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.11317708333333333</v>
       </c>
       <c r="F6">
-        <f>A6*$G$3</f>
+        <f t="shared" si="1"/>
         <v>0.1101</v>
       </c>
     </row>
@@ -1192,11 +1201,11 @@
         <v>25.645</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.18583333333333332</v>
       </c>
       <c r="F7">
-        <f>A7*$G$3</f>
+        <f t="shared" si="1"/>
         <v>0.1835</v>
       </c>
     </row>
@@ -1214,11 +1223,11 @@
         <v>42.982498999999997</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.37053878448275862</v>
       </c>
       <c r="F8">
-        <f>A8*$G$3</f>
+        <f t="shared" si="1"/>
         <v>0.36699999999999999</v>
       </c>
     </row>
@@ -1236,11 +1245,11 @@
         <v>87.862499999999997</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.73218749999999999</v>
       </c>
       <c r="F9">
-        <f>A9*$G$3</f>
+        <f t="shared" si="1"/>
         <v>0.73399999999999999</v>
       </c>
     </row>
@@ -1254,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,12 +1286,12 @@
         <v>0.4375</v>
       </c>
       <c r="E1">
-        <f>D1/C1</f>
+        <f t="shared" ref="E1:E11" si="0">D1/C1</f>
         <v>2.1874999999999999E-2</v>
       </c>
       <c r="F1">
-        <f>$G$2*POWER(B1,$H$2)</f>
-        <v>4.9599999999999983E-3</v>
+        <f t="shared" ref="F1:F11" si="1">$G$2*POWER(B1,$H$2)</f>
+        <v>7.9359999999999999E-4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1305,19 +1314,19 @@
         <v>1.395</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" si="0"/>
         <v>6.9750000000000006E-2</v>
       </c>
       <c r="F2">
-        <f>$G$2*POWER(B2,$H$2)</f>
-        <v>2.9060743280239769E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3823999999999999E-3</v>
       </c>
       <c r="G2">
-        <f>0.00155*0.05</f>
-        <v>7.75E-5</v>
+        <f>0.00155*0.002</f>
+        <v>3.1E-6</v>
       </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,12 +1343,12 @@
         <v>1.895</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>9.4750000000000001E-2</v>
       </c>
       <c r="F3">
-        <f>$G$2*POWER(B3,$H$2)</f>
-        <v>4.5388806439473649E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.519E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,12 +1365,12 @@
         <v>3.5375000000000001</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.176875</v>
       </c>
       <c r="F4">
-        <f>$G$2*POWER(B4,$H$2)</f>
-        <v>0.11091934183788685</v>
+        <f t="shared" si="1"/>
+        <v>4.99999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,12 +1387,12 @@
         <v>8.7074999999999996</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.43537499999999996</v>
       </c>
       <c r="F5">
-        <f>$G$2*POWER(B5,$H$2)</f>
-        <v>0.36311045151578863</v>
+        <f t="shared" si="1"/>
+        <v>0.24304000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,12 +1409,12 @@
         <v>17.9725</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.89862500000000001</v>
       </c>
       <c r="F6">
-        <f>$G$2*POWER(B6,$H$2)</f>
-        <v>0.84834417351170011</v>
+        <f t="shared" si="1"/>
+        <v>0.75345189999999995</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,12 +1431,12 @@
         <v>22.4</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="F7">
-        <f>$G$2*POWER(B7,$H$2)</f>
-        <v>1.0657848465567525</v>
+        <f t="shared" si="1"/>
+        <v>1.0213756000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1444,12 +1453,12 @@
         <v>30.635000000000002</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>1.5317500000000002</v>
       </c>
       <c r="F8">
-        <f>$G$2*POWER(B8,$H$2)</f>
-        <v>1.5097656905626096</v>
+        <f t="shared" si="1"/>
+        <v>1.6249456</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,12 +1475,12 @@
         <v>53.88</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>2.694</v>
       </c>
       <c r="F9">
-        <f>$G$2*POWER(B9,$H$2)</f>
-        <v>2.6746102239391791</v>
+        <f t="shared" si="1"/>
+        <v>3.4831599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,12 +1497,12 @@
         <v>76.891999999999996</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
+        <f t="shared" si="0"/>
         <v>3.8445999999999998</v>
       </c>
       <c r="F10">
-        <f>$G$2*POWER(B10,$H$2)</f>
-        <v>3.729421487968176</v>
+        <f t="shared" si="1"/>
+        <v>5.4260199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,12 +1519,12 @@
         <v>84.64</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
+        <f t="shared" si="0"/>
         <v>4.2320000000000002</v>
       </c>
       <c r="F11">
-        <f>$G$2*POWER(B11,$H$2)</f>
-        <v>4.0596982646497271</v>
+        <f t="shared" si="1"/>
+        <v>6.0759999999999996</v>
       </c>
     </row>
   </sheetData>
